--- a/Automated data entry for maharashtra contractors and engineers/auto.xlsx
+++ b/Automated data entry for maharashtra contractors and engineers/auto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Full auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Data_Entry_Python_Program\Automated data entry for maharashtra contractors and engineers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6051DBB3-9D56-496C-832F-4BA4F738EA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFFA8F6-28D6-450D-92C3-001D4767AA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auto" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,14 +354,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Automated data entry for maharashtra contractors and engineers/auto.xlsx
+++ b/Automated data entry for maharashtra contractors and engineers/auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Data_Entry_Python_Program\Automated data entry for maharashtra contractors and engineers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFFA8F6-28D6-450D-92C3-001D4767AA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDCD53A-8EEE-4C72-96FF-DD1C454BAE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="2895" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auto" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>sds</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,40 +341,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
